--- a/data/scheduling_DNN/predict/0.5/result6.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result6.xlsx
@@ -570,10 +570,10 @@
         <v>3.167232036590576</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8671715259552002</v>
       </c>
       <c r="W2" t="n">
-        <v>5.568952560424805</v>
+        <v>5.290278434753418</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.404112100601196</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.4827055037021637</v>
       </c>
       <c r="W3" t="n">
-        <v>0.751254141330719</v>
+        <v>0.8489901423454285</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9456422328948975</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4228511154651642</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1948470622301102</v>
+        <v>0.2733105719089508</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8893940448760986</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.399128258228302</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1522098183631897</v>
+        <v>0.2403605431318283</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8721561431884766</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4874413013458252</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1184902265667915</v>
+        <v>0.1480055153369904</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9303970336914062</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.5077722072601318</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3359520137310028</v>
+        <v>0.1786117404699326</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.881749153137207</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.3991292119026184</v>
       </c>
       <c r="W8" t="n">
-        <v>0.144525870680809</v>
+        <v>0.2329220026731491</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8765780925750732</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.5134854316711426</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1393744796514511</v>
+        <v>0.1318362802267075</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8735430240631104</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.4876573383808136</v>
       </c>
       <c r="W10" t="n">
-        <v>0.008249996230006218</v>
+        <v>0.1489077657461166</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9339530467987061</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4017753601074219</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01395339425653219</v>
+        <v>0.2832130789756775</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8872480392456055</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4097132682800293</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2339262366294861</v>
+        <v>0.2280394583940506</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9296009540557861</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.490278571844101</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07590349763631821</v>
+        <v>0.1930041611194611</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.891880989074707</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8662524223327637</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1276414692401886</v>
+        <v>0.000656823453027755</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9860789775848389</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8716076016426086</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2223830074071884</v>
+        <v>0.01310369558632374</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9325368404388428</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.5130736827850342</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3151843547821045</v>
+        <v>0.1759493350982666</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9169769287109375</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.494331568479538</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2886818647384644</v>
+        <v>0.1786291003227234</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9982678890228271</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.509283185005188</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03788748383522034</v>
+        <v>0.2391060441732407</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9128479957580566</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8806251883506775</v>
       </c>
       <c r="W19" t="n">
-        <v>0.009769227355718613</v>
+        <v>0.001038309303112328</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9222478866577148</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8758550882339478</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07785759121179581</v>
+        <v>0.002152291825041175</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9135510921478271</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.486636221408844</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1147634387016296</v>
+        <v>0.1822563111782074</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.7137069702148438</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.3975626230239868</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01047888956964016</v>
+        <v>0.0999472513794899</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.7073030471801758</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3975186347961426</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02744829840958118</v>
+        <v>0.09596638381481171</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5411200523376465</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.5130978226661682</v>
       </c>
       <c r="W24" t="n">
-        <v>0.004032108467072248</v>
+        <v>0.0007852453272789717</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5510289669036865</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.3975183963775635</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001397062442265451</v>
+        <v>0.0235654953867197</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5308189392089844</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.4913414418697357</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0002720374905038625</v>
+        <v>0.001558472751639783</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5781209468841553</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.8720456957817078</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0304290521889925</v>
+        <v>0.08639175444841385</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5183680057525635</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.3976183831691742</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01325925625860691</v>
+        <v>0.01458047144114971</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.556318998336792</v>
       </c>
       <c r="V29" t="n">
-        <v>0.531548023223877</v>
+        <v>0.4026708602905273</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0006136011797934771</v>
+        <v>0.02360774949193001</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5419950485229492</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4220262765884399</v>
       </c>
       <c r="W30" t="n">
-        <v>0.07760858535766602</v>
+        <v>0.01439250633120537</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5267479419708252</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4107626080513</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0002133700327249244</v>
+        <v>0.01345259789377451</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.579246997833252</v>
       </c>
       <c r="V32" t="n">
-        <v>0.654166579246521</v>
+        <v>0.5160696506500244</v>
       </c>
       <c r="W32" t="n">
-        <v>0.005612943787127733</v>
+        <v>0.003991377074271441</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5367209911346436</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.3974729776382446</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01109892781823874</v>
+        <v>0.01939000934362411</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5306520462036133</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.3975304961204529</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0158225242048502</v>
+        <v>0.01772134751081467</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5144469738006592</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4977718591690063</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02678428031504154</v>
+        <v>0.0002780594513751566</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5168359279632568</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.8947766423225403</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01287604030221701</v>
+        <v>0.142839178442955</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5154819488525391</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4009686708450317</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01256887055933475</v>
+        <v>0.01311329100281</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5198900699615479</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8696514964103699</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02871191315352917</v>
+        <v>0.1223330572247505</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5173659324645996</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8707852959632874</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02721660956740379</v>
+        <v>0.1249052435159683</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5195119380950928</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4017446637153625</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0003124429495073855</v>
+        <v>0.01386913098394871</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5212240219116211</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4115078151226044</v>
       </c>
       <c r="W41" t="n">
-        <v>0.000377419957658276</v>
+        <v>0.01203764602541924</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4712200164794922</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.3975059390068054</v>
       </c>
       <c r="W42" t="n">
-        <v>0.008157889358699322</v>
+        <v>0.005433765240013599</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4529068470001221</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8760491013526917</v>
       </c>
       <c r="W43" t="n">
-        <v>0.2396443784236908</v>
+        <v>0.1790493726730347</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3916239738464355</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4030104875564575</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01267062034457922</v>
+        <v>0.0001296526897931471</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3921079635620117</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.507696807384491</v>
       </c>
       <c r="W45" t="n">
-        <v>0.3070989847183228</v>
+        <v>0.01336078066378832</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3887619972229004</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8960837125778198</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0212323572486639</v>
+        <v>0.2573753297328949</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.404749870300293</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4219810366630554</v>
       </c>
       <c r="W47" t="n">
-        <v>1.127476480178302e-06</v>
+        <v>0.0002969130873680115</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3937609195709229</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8795705437660217</v>
       </c>
       <c r="W48" t="n">
-        <v>0.007034040987491608</v>
+        <v>0.2360109835863113</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4548780918121338</v>
       </c>
       <c r="V49" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8658825159072876</v>
       </c>
       <c r="W49" t="n">
-        <v>0.2393186241388321</v>
+        <v>0.1689246296882629</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3898990154266357</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.3976137638092041</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001529853558167815</v>
+        <v>5.951734419795685e-05</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3914351463317871</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.4986180067062378</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1712660640478134</v>
+        <v>0.0114881657063961</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3868470191955566</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8721827864646912</v>
       </c>
       <c r="W52" t="n">
-        <v>0.004072737880051136</v>
+        <v>0.2355508059263229</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.38736891746521</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.4103345572948456</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0002658413432072848</v>
+        <v>0.0005274206050671637</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3908920288085938</v>
       </c>
       <c r="V54" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4040807485580444</v>
       </c>
       <c r="W54" t="n">
-        <v>0.308241605758667</v>
+        <v>0.0001739423314575106</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4495871067047119</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4947991073131561</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01262096595019102</v>
+        <v>0.002044124994426966</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3925981521606445</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.3990750014781952</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03840187937021255</v>
+        <v>4.194957728032023e-05</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3888208866119385</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4909111559391022</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01345767267048359</v>
+        <v>0.01042242348194122</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.43886399269104</v>
       </c>
       <c r="V58" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.3975136280059814</v>
       </c>
       <c r="W58" t="n">
-        <v>0.2551250457763672</v>
+        <v>0.001709852716885507</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3891241550445557</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.3991206884384155</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02973960153758526</v>
+        <v>9.993067942559719e-05</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865189552307129</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8713631629943848</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01352843176573515</v>
+        <v>0.235073909163475</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881959915161133</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.3975099325180054</v>
       </c>
       <c r="W61" t="n">
-        <v>0.08663731068372726</v>
+        <v>8.674949640408158e-05</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.025092840194702</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.3974832892417908</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2610626816749573</v>
+        <v>0.3938937485218048</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8699619770050049</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4984391927719116</v>
       </c>
       <c r="W63" t="n">
-        <v>0.05227863043546677</v>
+        <v>0.1380291730165482</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8683059215545654</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5458720922470093</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2159332782030106</v>
+        <v>0.1039635762572289</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9314489364624023</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4042403101921082</v>
       </c>
       <c r="W65" t="n">
-        <v>0.278598964214325</v>
+        <v>0.2779489457607269</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8678009510040283</v>
       </c>
       <c r="V66" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.5057473182678223</v>
       </c>
       <c r="W66" t="n">
-        <v>0.007218219339847565</v>
+        <v>0.1310828328132629</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8738498687744141</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4230045080184937</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1809404790401459</v>
+        <v>0.2032615393400192</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9042618274688721</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.869365394115448</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1178346648812294</v>
+        <v>0.00121776107698679</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9332449436187744</v>
       </c>
       <c r="V69" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4215648770332336</v>
       </c>
       <c r="W69" t="n">
-        <v>0.01516225002706051</v>
+        <v>0.2618165016174316</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>1.078771114349365</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.8966754674911499</v>
       </c>
       <c r="W70" t="n">
-        <v>0.4557559490203857</v>
+        <v>0.03315882384777069</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8822128772735596</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8690583109855652</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1456487774848938</v>
+        <v>0.0001730426156427711</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8696539402008057</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8854052424430847</v>
       </c>
       <c r="W72" t="n">
-        <v>0.05062045156955719</v>
+        <v>0.0002481035189703107</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.913909912109375</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.3975812792778015</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2604107558727264</v>
+        <v>0.2665952444076538</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8965461254119873</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4907368719577789</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1462710052728653</v>
+        <v>0.164681151509285</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8689498901367188</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4952255189418793</v>
       </c>
       <c r="W75" t="n">
-        <v>0.003466724650934339</v>
+        <v>0.1396699100732803</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8827078342437744</v>
       </c>
       <c r="V76" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8761980533599854</v>
       </c>
       <c r="W76" t="n">
-        <v>0.004219724331051111</v>
+        <v>4.237724715494551e-05</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8865110874176025</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8718582391738892</v>
       </c>
       <c r="W77" t="n">
-        <v>0.09586396813392639</v>
+        <v>0.0002147059567505494</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.866753101348877</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4029378592967987</v>
       </c>
       <c r="W78" t="n">
-        <v>0.02863293699920177</v>
+        <v>0.2151245772838593</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8675868511199951</v>
       </c>
       <c r="V79" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4035044312477112</v>
       </c>
       <c r="W79" t="n">
-        <v>0.007073112297803164</v>
+        <v>0.2153724879026413</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8629810810089111</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4030150473117828</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0492473803460598</v>
+        <v>0.211568757891655</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8668689727783203</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8756083250045776</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2667697966098785</v>
+        <v>7.63762800488621e-05</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5625960826873779</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.8673740029335022</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00341128115542233</v>
+        <v>0.09288957715034485</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5548849105834961</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8611021041870117</v>
       </c>
       <c r="W83" t="n">
-        <v>0.009599337354302406</v>
+        <v>0.09376896917819977</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5213749408721924</v>
       </c>
       <c r="V84" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.8628783822059631</v>
       </c>
       <c r="W84" t="n">
-        <v>0.06859227269887924</v>
+        <v>0.1166246011853218</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4816938638687134</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02000106871128082</v>
+        <v>0.001586037105880678</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5168092250823975</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4974895119667053</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01280363090336323</v>
+        <v>0.0003732513287104666</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5132699012756348</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.4818074703216553</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001240259269252419</v>
+        <v>0.0009898846037685871</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.515678882598877</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4228969812393188</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01991511136293411</v>
+        <v>0.008608480915427208</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5146379470825195</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4984538853168488</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01925026066601276</v>
+        <v>0.0002619238512124866</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5181679725646973</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8851094841957092</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02369321882724762</v>
+        <v>0.1346460729837418</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5433709621429443</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4932998716831207</v>
       </c>
       <c r="W91" t="n">
-        <v>0.03709230944514275</v>
+        <v>0.00250711408443749</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5187199115753174</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4936220049858093</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0189469438046217</v>
+        <v>0.0006299049127846956</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5162639617919922</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.4903586506843567</v>
       </c>
       <c r="W93" t="n">
-        <v>6.17244631939684e-06</v>
+        <v>0.0006710851448588073</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5133109092712402</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8708741068840027</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02641385234892368</v>
+        <v>0.1278514415025711</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5201830863952637</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.8949793577194214</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0004124373663216829</v>
+        <v>0.1404722481966019</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.575124979019165</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.5012778043746948</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003771562594920397</v>
+        <v>0.005453404970467091</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5194261074066162</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.8820235133171082</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01341922767460346</v>
+        <v>0.131476879119873</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5185620784759521</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.5134249925613403</v>
       </c>
       <c r="W98" t="n">
-        <v>0.02815479226410389</v>
+        <v>2.63896508840844e-05</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5155520439147949</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.4211781322956085</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0006028995849192142</v>
+        <v>0.00890643522143364</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5199511051177979</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8730373978614807</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0002846459101419896</v>
+        <v>0.1246699318289757</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5420560836791992</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8740950226783752</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0293504074215889</v>
+        <v>0.1102498546242714</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4420690536499023</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8654919862747192</v>
       </c>
       <c r="W102" t="n">
-        <v>0.009033229202032089</v>
+        <v>0.1792869865894318</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4139640331268311</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.8752492666244507</v>
       </c>
       <c r="W103" t="n">
-        <v>0.008119436912238598</v>
+        <v>0.2127840667963028</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3941290378570557</v>
       </c>
       <c r="V104" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4041925072669983</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1518359333276749</v>
+        <v>0.0001012734137475491</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4021251201629639</v>
       </c>
       <c r="V105" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4088275730609894</v>
       </c>
       <c r="W105" t="n">
-        <v>0.1457606256008148</v>
+        <v>4.492287553148344e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3888130187988281</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8597657680511475</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1691359728574753</v>
+        <v>0.2217964977025986</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3869071006774902</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.4213981628417969</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1765137314796448</v>
+        <v>0.001189633389003575</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3894751071929932</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.8872599005699158</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0799691453576088</v>
+        <v>0.2477896958589554</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3875510692596436</v>
       </c>
       <c r="V109" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8689703345298767</v>
       </c>
       <c r="W109" t="n">
-        <v>3.850008170047658e-07</v>
+        <v>0.2317645102739334</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3908200263977051</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4816325306892395</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01278294064104557</v>
+        <v>0.008246910758316517</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3929450511932373</v>
       </c>
       <c r="V111" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4965901672840118</v>
       </c>
       <c r="W111" t="n">
-        <v>0.001777551369741559</v>
+        <v>0.01074231043457985</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3923311233520508</v>
       </c>
       <c r="V112" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.4228058755397797</v>
       </c>
       <c r="W112" t="n">
-        <v>0.1663528233766556</v>
+        <v>0.0009287105058319867</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3937950134277344</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.8671483993530273</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06231054291129112</v>
+        <v>0.2240634262561798</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.389441967010498</v>
       </c>
       <c r="V114" t="n">
-        <v>0.654965877532959</v>
+        <v>0.4992431700229645</v>
       </c>
       <c r="W114" t="n">
-        <v>0.07050294429063797</v>
+        <v>0.01205630414187908</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.397819995880127</v>
       </c>
       <c r="V115" t="n">
-        <v>0.65655517578125</v>
+        <v>0.492617279291153</v>
       </c>
       <c r="W115" t="n">
-        <v>0.06694389134645462</v>
+        <v>0.008986525237560272</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3987360000610352</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4912231862545013</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01781447976827621</v>
+        <v>0.008553879335522652</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3913397789001465</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4109484553337097</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0002423873083898798</v>
+        <v>0.0003845001920126379</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4122710227966309</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.5071893930435181</v>
       </c>
       <c r="W118" t="n">
-        <v>0.00358081771992147</v>
+        <v>0.009009497240185738</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3941869735717773</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.5284013152122498</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1712211668491364</v>
+        <v>0.0180134903639555</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.457205057144165</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4023280739784241</v>
       </c>
       <c r="W120" t="n">
-        <v>0.004999002907425165</v>
+        <v>0.003011483233422041</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.5027899742126465</v>
       </c>
       <c r="V121" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8794804811477661</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1934095919132233</v>
+        <v>0.1418957412242889</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8689439296722412</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5255252122879028</v>
       </c>
       <c r="W122" t="n">
-        <v>0.05179806053638458</v>
+        <v>0.1179364174604416</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8908219337463379</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.515494704246521</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2648659646511078</v>
+        <v>0.140870526432991</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.931210994720459</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.5067825317382812</v>
       </c>
       <c r="W124" t="n">
-        <v>0.3369045555591583</v>
+        <v>0.1801395267248154</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8772821426391602</v>
       </c>
       <c r="V125" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8876541256904602</v>
       </c>
       <c r="W125" t="n">
-        <v>0.008898702450096607</v>
+        <v>0.000107578031020239</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8750848770141602</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4228041172027588</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1191572397947311</v>
+        <v>0.2045578807592392</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.874798059463501</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.5133115649223328</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2220389544963837</v>
+        <v>0.1306724846363068</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9408159255981445</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.495530366897583</v>
       </c>
       <c r="W128" t="n">
-        <v>0.06671061366796494</v>
+        <v>0.1982792317867279</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8837559223175049</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.4095256328582764</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2305535972118378</v>
+        <v>0.2248943746089935</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8654310703277588</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.4983840584754944</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1051483303308487</v>
+        <v>0.1347235143184662</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8660948276519775</v>
       </c>
       <c r="V131" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.512977123260498</v>
       </c>
       <c r="W131" t="n">
-        <v>0.002928710309788585</v>
+        <v>0.1246921122074127</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9294381141662598</v>
       </c>
       <c r="V132" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4091616272926331</v>
       </c>
       <c r="W132" t="n">
-        <v>0.0212381761521101</v>
+        <v>0.270687609910965</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9595000743865967</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8792691826820374</v>
       </c>
       <c r="W133" t="n">
-        <v>0.3466890454292297</v>
+        <v>0.006436996161937714</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8669309616088867</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4034275710582733</v>
       </c>
       <c r="W134" t="n">
-        <v>0.07112541049718857</v>
+        <v>0.2148353904485703</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8834428787231445</v>
       </c>
       <c r="V135" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.865515410900116</v>
       </c>
       <c r="W135" t="n">
-        <v>0.005708012729883194</v>
+        <v>0.0003213940944988281</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9176211357116699</v>
       </c>
       <c r="V136" t="n">
-        <v>0.672245979309082</v>
+        <v>0.40336874127388</v>
       </c>
       <c r="W136" t="n">
-        <v>0.06020896881818771</v>
+        <v>0.2644555568695068</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8771548271179199</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8872113227844238</v>
       </c>
       <c r="W137" t="n">
-        <v>0.137937068939209</v>
+        <v>0.0001011331041809171</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8673210144042969</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.3975099325180054</v>
       </c>
       <c r="W138" t="n">
-        <v>0.003241602331399918</v>
+        <v>0.2207224518060684</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8726670742034912</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8681620359420776</v>
       </c>
       <c r="W139" t="n">
-        <v>0.178180992603302</v>
+        <v>2.029537063208409e-05</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8932230472564697</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.8717095255851746</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04436823725700378</v>
+        <v>0.0004628316091839224</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8777329921722412</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4979683458805084</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2247951030731201</v>
+        <v>0.1442211866378784</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5309648513793945</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8786638379096985</v>
       </c>
       <c r="W142" t="n">
-        <v>4.108660505153239e-07</v>
+        <v>0.1208945885300636</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5217170715332031</v>
       </c>
       <c r="V143" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4217046499252319</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01975023560225964</v>
+        <v>0.01000248454511166</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5491008758544922</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4028738439083099</v>
       </c>
       <c r="W144" t="n">
-        <v>0.001201781327836215</v>
+        <v>0.02138234488666058</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5225908756256104</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.8777391910552979</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002002861583605409</v>
+        <v>0.1261303275823593</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5217640399932861</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.3990521132946014</v>
       </c>
       <c r="W146" t="n">
-        <v>6.208645208971575e-05</v>
+        <v>0.01505821663886309</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5553059577941895</v>
       </c>
       <c r="V147" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4099820256233215</v>
       </c>
       <c r="W147" t="n">
-        <v>0.001659904140979052</v>
+        <v>0.02111904509365559</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5254931449890137</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4229107797145844</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02981513738632202</v>
+        <v>0.01052314136177301</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5233750343322754</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.3991641104221344</v>
       </c>
       <c r="W149" t="n">
-        <v>0.08124271780252457</v>
+        <v>0.01542835403233767</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5240139961242676</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4882876873016357</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01762488298118114</v>
+        <v>0.00127636909019202</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5210261344909668</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8699072599411011</v>
       </c>
       <c r="W151" t="n">
-        <v>0.02131143026053905</v>
+        <v>0.1217180415987968</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5267980098724365</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8719403743743896</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0309810247272253</v>
+        <v>0.119123250246048</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5183980464935303</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8959798216819763</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01883267983794212</v>
+        <v>0.1425679922103882</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5185818672180176</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.5131198167800903</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01524906791746616</v>
+        <v>2.983399463118985e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5758249759674072</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.5164391994476318</v>
       </c>
       <c r="W155" t="n">
-        <v>0.05064184218645096</v>
+        <v>0.003526670392602682</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5240299701690674</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8739702701568604</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0001045383978635073</v>
+        <v>0.1224582120776176</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5309000015258789</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8660975098609924</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0001097564236260951</v>
+        <v>0.1123573705554008</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5392780303955078</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8660141825675964</v>
       </c>
       <c r="W158" t="n">
-        <v>0.03552989661693573</v>
+        <v>0.1067565158009529</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5395951271057129</v>
       </c>
       <c r="V159" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8636236190795898</v>
       </c>
       <c r="W159" t="n">
-        <v>0.05919910594820976</v>
+        <v>0.104994460940361</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.583798885345459</v>
       </c>
       <c r="V160" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4870618581771851</v>
       </c>
       <c r="W160" t="n">
-        <v>0.1325640231370926</v>
+        <v>0.009358052164316177</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5275847911834717</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.5133310556411743</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002442112425342202</v>
+        <v>0.0002031689800787717</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3983168601989746</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.3975131511688232</v>
       </c>
       <c r="W162" t="n">
-        <v>0.0179927758872509</v>
+        <v>6.459482051468513e-07</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4094059467315674</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8797193169593811</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02285785228013992</v>
+        <v>0.2211946696043015</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.398500919342041</v>
       </c>
       <c r="V164" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4009740352630615</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01844806782901287</v>
+        <v>6.116302301961696e-06</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4017469882965088</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8688183426856995</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01256071869283915</v>
+        <v>0.2181556522846222</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4928431510925293</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.5146212577819824</v>
       </c>
       <c r="W166" t="n">
-        <v>0.02018171548843384</v>
+        <v>0.0004742859164252877</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4006388187408447</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8926859498023987</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01987203396856785</v>
+        <v>0.2421103864908218</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4077339172363281</v>
       </c>
       <c r="V168" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8878608345985413</v>
       </c>
       <c r="W168" t="n">
-        <v>0.291747510433197</v>
+        <v>0.2305218577384949</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3965508937835693</v>
       </c>
       <c r="V169" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4040580093860626</v>
       </c>
       <c r="W169" t="n">
-        <v>0.2980352938175201</v>
+        <v>5.635678462567739e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3955140113830566</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5470249056816101</v>
       </c>
       <c r="W170" t="n">
-        <v>0.002000925596803427</v>
+        <v>0.02295555174350739</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3903357982635498</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.49410280585289</v>
       </c>
       <c r="W171" t="n">
-        <v>0.07075855135917664</v>
+        <v>0.01076759211719036</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4547970294952393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4183119535446167</v>
       </c>
       <c r="W172" t="n">
-        <v>0.006319125182926655</v>
+        <v>0.00133116077631712</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4022529125213623</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8803834915161133</v>
       </c>
       <c r="W173" t="n">
-        <v>3.961871334468015e-05</v>
+        <v>0.2286088466644287</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4036719799041748</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8653280138969421</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0007877694442868233</v>
+        <v>0.2131262868642807</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.394834041595459</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4238888621330261</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01212319824844599</v>
+        <v>0.0008441826212219894</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3987739086151123</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4023381471633911</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01923220418393612</v>
+        <v>1.270379652851261e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4007768630981445</v>
       </c>
       <c r="V177" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.5082420706748962</v>
       </c>
       <c r="W177" t="n">
-        <v>0.2975606620311737</v>
+        <v>0.01154877059161663</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.448930025100708</v>
       </c>
       <c r="V178" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.3991697132587433</v>
       </c>
       <c r="W178" t="n">
-        <v>0.2472533732652664</v>
+        <v>0.00247608870267868</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.3975924253463745</v>
       </c>
       <c r="W179" t="n">
-        <v>0.02029967121779919</v>
+        <v>7.292419468285516e-06</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3952810764312744</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4092562198638916</v>
       </c>
       <c r="W180" t="n">
-        <v>0.09186461567878723</v>
+        <v>0.0001953046303242445</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4066030979156494</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4907180070877075</v>
       </c>
       <c r="W181" t="n">
-        <v>9.011037036543712e-06</v>
+        <v>0.00707531813532114</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8780241012573242</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8776726126670837</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1320858001708984</v>
+        <v>1.235442255165253e-07</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9284200668334961</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4917079508304596</v>
       </c>
       <c r="W183" t="n">
-        <v>0.08174010366201401</v>
+        <v>0.1907174736261368</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8708159923553467</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.3976123332977295</v>
       </c>
       <c r="W184" t="n">
-        <v>0.05205215513706207</v>
+        <v>0.2239217013120651</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8763139247894287</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8802668452262878</v>
       </c>
       <c r="W185" t="n">
-        <v>0.09965350478887558</v>
+        <v>1.5625579180778e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8720200061798096</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.5134937167167664</v>
       </c>
       <c r="W186" t="n">
-        <v>0.03555842861533165</v>
+        <v>0.1285410970449448</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9399688243865967</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8796165585517883</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1437843143939972</v>
+        <v>0.003642396070063114</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.873917818069458</v>
       </c>
       <c r="V188" t="n">
-        <v>0.541418194770813</v>
+        <v>0.404059499502182</v>
       </c>
       <c r="W188" t="n">
-        <v>0.110555998980999</v>
+        <v>0.2207668423652649</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8764328956604004</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.5134003162384033</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1812779158353806</v>
+        <v>0.1317926496267319</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8718578815460205</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4099495112895966</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1138503178954124</v>
+        <v>0.2133593410253525</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9405422210693359</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.5473512411117554</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1808208823204041</v>
+        <v>0.1545991450548172</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8910238742828369</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8747536540031433</v>
       </c>
       <c r="W192" t="n">
-        <v>0.05577725172042847</v>
+        <v>0.0002647200599312782</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>1.038957834243774</v>
       </c>
       <c r="V193" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4222802519798279</v>
       </c>
       <c r="W193" t="n">
-        <v>0.3279726207256317</v>
+        <v>0.3802912533283234</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9335501194000244</v>
       </c>
       <c r="V194" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.397484302520752</v>
       </c>
       <c r="W194" t="n">
-        <v>0.0226824302226305</v>
+        <v>0.2873665690422058</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9252970218658447</v>
       </c>
       <c r="V195" t="n">
-        <v>0.514431357383728</v>
+        <v>0.861952543258667</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1688105911016464</v>
+        <v>0.004012522753328085</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8666849136352539</v>
       </c>
       <c r="V196" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.5131744146347046</v>
       </c>
       <c r="W196" t="n">
-        <v>0.006824019830673933</v>
+        <v>0.1249696761369705</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8695650100708008</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.8994631171226501</v>
       </c>
       <c r="W197" t="n">
-        <v>0.232435330748558</v>
+        <v>0.0008938967948779464</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8755500316619873</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.8767572045326233</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2501672804355621</v>
+        <v>1.457266307625105e-06</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9040899276733398</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.3974742889404297</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2508042454719543</v>
+        <v>0.2566594183444977</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8684718608856201</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4952250123023987</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2375789433717728</v>
+        <v>0.139313206076622</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8767650127410889</v>
       </c>
       <c r="V201" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.4127549529075623</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2513885796070099</v>
+        <v>0.2153053283691406</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5225908756256104</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.5007929801940918</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01421671733260155</v>
+        <v>0.0004751482338178903</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.575247049331665</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.8655414581298828</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02942588739097118</v>
+        <v>0.08427084237337112</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5330410003662109</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8962189555168152</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0003075107524637133</v>
+        <v>0.1318982243537903</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5222020149230957</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.496900349855423</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0198631789535284</v>
+        <v>0.000640174257569015</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5206129550933838</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4953027665615082</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01367922779172659</v>
+        <v>0.0006406056345440447</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5229430198669434</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.5001543760299683</v>
       </c>
       <c r="W207" t="n">
-        <v>0.004331594798713923</v>
+        <v>0.0005193222896195948</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5288169384002686</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4864478707313538</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01276822667568922</v>
+        <v>0.001795137883163989</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5241458415985107</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4009286761283875</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0001080223737517372</v>
+        <v>0.01518246997147799</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5320758819580078</v>
       </c>
       <c r="V210" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8790208101272583</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0195841770619154</v>
+        <v>0.1203707829117775</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5268800258636475</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.5132584571838379</v>
       </c>
       <c r="W211" t="n">
-        <v>0.002422593301162124</v>
+        <v>0.0001855471346061677</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5245158672332764</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.3975332379341125</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01376987155526876</v>
+        <v>0.01612458750605583</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5290980339050293</v>
       </c>
       <c r="V213" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5134868621826172</v>
       </c>
       <c r="W213" t="n">
-        <v>0.03196987137198448</v>
+        <v>0.0002437086805002764</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5553569793701172</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8689945340156555</v>
       </c>
       <c r="W214" t="n">
-        <v>0.000464908720459789</v>
+        <v>0.09836851805448532</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5244209766387939</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.5004991292953491</v>
       </c>
       <c r="W215" t="n">
-        <v>0.03015134111046791</v>
+        <v>0.0005722547648474574</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5262329578399658</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8757829070091248</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0005918396636843681</v>
+        <v>0.1221851706504822</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5246539115905762</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.5160560607910156</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0004608282470144331</v>
+        <v>7.392303814413026e-05</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5219841003417969</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.3974818885326385</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0002265005314256996</v>
+        <v>0.01550080068409443</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5761749744415283</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4013310074806213</v>
       </c>
       <c r="W219" t="n">
-        <v>0.003887957893311977</v>
+        <v>0.03057041205465794</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5279750823974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4026817679405212</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0001822621998144314</v>
+        <v>0.01569841429591179</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.523306131362915</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.863251268863678</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0003241290105506778</v>
+        <v>0.1155626997351646</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3898880481719971</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.865442156791687</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06404611468315125</v>
+        <v>0.226151704788208</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3953080177307129</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.8668428063392639</v>
       </c>
       <c r="W223" t="n">
-        <v>0.02133590541779995</v>
+        <v>0.2223450541496277</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3944268226623535</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8692960739135742</v>
       </c>
       <c r="W224" t="n">
-        <v>0.001905705081298947</v>
+        <v>0.2255008071660995</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.397845983505249</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4029834866523743</v>
       </c>
       <c r="W225" t="n">
-        <v>0.06603237986564636</v>
+        <v>2.639393824210856e-05</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3971030712127686</v>
       </c>
       <c r="V226" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8763839602470398</v>
       </c>
       <c r="W226" t="n">
-        <v>0.06736346334218979</v>
+        <v>0.2297101765871048</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3997070789337158</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.397573322057724</v>
       </c>
       <c r="W227" t="n">
-        <v>0.04346848279237747</v>
+        <v>4.552918198896805e-06</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3976969718933105</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.422188937664032</v>
       </c>
       <c r="W228" t="n">
-        <v>0.03651173785328865</v>
+        <v>0.0005998563719913363</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4578390121459961</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8591350317001343</v>
       </c>
       <c r="W229" t="n">
-        <v>0.03880595788359642</v>
+        <v>0.1610384881496429</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3946430683135986</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4055905044078827</v>
       </c>
       <c r="W230" t="n">
-        <v>0.003127456875517964</v>
+        <v>0.0001198463578475639</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4275059700012207</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8894001841545105</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0004379772581160069</v>
+        <v>0.2133462578058243</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4035358428955078</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8569976687431335</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01900079473853111</v>
+        <v>0.2056276202201843</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4098629951477051</v>
       </c>
       <c r="V233" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.4109904170036316</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1385460644960403</v>
+        <v>1.271080009246361e-06</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3988161087036133</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.3974946439266205</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0005526070017367601</v>
+        <v>1.746269163049874e-06</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3977689743041992</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.8663592338562012</v>
       </c>
       <c r="W235" t="n">
-        <v>0.02062592096626759</v>
+        <v>0.2195768356323242</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3982951641082764</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.4311802089214325</v>
       </c>
       <c r="W236" t="n">
-        <v>0.08536932617425919</v>
+        <v>0.001081426162272692</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4509050846099854</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8598870635032654</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002690087538212538</v>
+        <v>0.1672662645578384</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3926410675048828</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8625364899635315</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0001211378912557848</v>
+        <v>0.2208017110824585</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3908169269561768</v>
       </c>
       <c r="V239" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.5152038335800171</v>
       </c>
       <c r="W239" t="n">
-        <v>0.30620476603508</v>
+        <v>0.01547210291028023</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3909370899200439</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.4875937402248383</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01870411261916161</v>
+        <v>0.009342508390545845</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3945589065551758</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.3975233435630798</v>
       </c>
       <c r="W241" t="n">
-        <v>0.07139411568641663</v>
+        <v>8.787887054495513e-06</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8967499732971191</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.497157096862793</v>
       </c>
       <c r="W242" t="n">
-        <v>0.08324680477380753</v>
+        <v>0.1596744656562805</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8810999393463135</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8840138912200928</v>
       </c>
       <c r="W243" t="n">
-        <v>0.281753808259964</v>
+        <v>8.4911152953282e-06</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8963069915771484</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.4910039007663727</v>
       </c>
       <c r="W244" t="n">
-        <v>0.05823782458901405</v>
+        <v>0.1642705947160721</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8787069320678711</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4009118378162384</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1401298940181732</v>
+        <v>0.2282881587743759</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9178488254547119</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4040334820747375</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2940973043441772</v>
+        <v>0.2640061974525452</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8813159465789795</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.3992105424404144</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1349897980690002</v>
+        <v>0.2324256151914597</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8960199356079102</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.8806125521659851</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1257616728544235</v>
+        <v>0.0002373874594923109</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8962609767913818</v>
       </c>
       <c r="V249" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8950424790382385</v>
       </c>
       <c r="W249" t="n">
-        <v>0.002130754990503192</v>
+        <v>1.484736799284292e-06</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.938507080078125</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4854746758937836</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1906819492578506</v>
+        <v>0.2052383571863174</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8854689598083496</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4975121021270752</v>
       </c>
       <c r="W251" t="n">
-        <v>0.0380137711763382</v>
+        <v>0.1505105197429657</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8799130916595459</v>
       </c>
       <c r="V252" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4888090193271637</v>
       </c>
       <c r="W252" t="n">
-        <v>0.009293768554925919</v>
+        <v>0.152962401509285</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8796958923339844</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.8632704615592957</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1841809898614883</v>
+        <v>0.0002697947784326971</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9464190006256104</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.5482330322265625</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2948391437530518</v>
+        <v>0.1585520654916763</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8841180801391602</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.5094060301780701</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1370003223419189</v>
+        <v>0.1404091268777847</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8769199848175049</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.403597503900528</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1391312479972839</v>
+        <v>0.2240341752767563</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8813910484313965</v>
       </c>
       <c r="V257" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8814674615859985</v>
       </c>
       <c r="W257" t="n">
-        <v>0.004926646128296852</v>
+        <v>5.838970196236914e-09</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9251289367675781</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.4034895598888397</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2722150683403015</v>
+        <v>0.2721076011657715</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8804678916931152</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.3974994719028473</v>
       </c>
       <c r="W259" t="n">
-        <v>0.162319228053093</v>
+        <v>0.2332585006952286</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8741600513458252</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8579804301261902</v>
       </c>
       <c r="W260" t="n">
-        <v>0.03134522214531898</v>
+        <v>0.0002617801364976913</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8746449947357178</v>
       </c>
       <c r="V261" t="n">
-        <v>0.350454181432724</v>
+        <v>0.3975031077861786</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2747759819030762</v>
+        <v>0.2276643812656403</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5848910808563232</v>
       </c>
       <c r="V262" t="n">
-        <v>0.54131019115448</v>
+        <v>0.5077909231185913</v>
       </c>
       <c r="W262" t="n">
-        <v>0.001899293973110616</v>
+        <v>0.005944434553384781</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5360989570617676</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.8951899409294128</v>
       </c>
       <c r="W263" t="n">
-        <v>0.004882120061665773</v>
+        <v>0.1289463341236115</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.526386022567749</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.397607684135437</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0001208618632517755</v>
+        <v>0.01658385992050171</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.529965877532959</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4911500811576843</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0279949102550745</v>
+        <v>0.001506666070781648</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5243890285491943</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.513170599937439</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0001078613640856929</v>
+        <v>0.0001258531410712749</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5340449810028076</v>
       </c>
       <c r="V267" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8658403754234314</v>
       </c>
       <c r="W267" t="n">
-        <v>0.1742308288812637</v>
+        <v>0.1100881844758987</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5288372039794922</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.4872080981731415</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0001795365242287517</v>
+        <v>0.001732982462272048</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5306789875030518</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.513241708278656</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01614954508841038</v>
+        <v>0.0003040587180294096</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5343441963195801</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4897443950176239</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02194569259881973</v>
+        <v>0.001989142270758748</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5286099910736084</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4880200922489166</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0001982779504032806</v>
+        <v>0.001647539902478456</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5500049591064453</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8786569833755493</v>
       </c>
       <c r="W272" t="n">
-        <v>0.03903630748391151</v>
+        <v>0.1080121546983719</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5278940200805664</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.403350293636322</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01545024663209915</v>
+        <v>0.01551114022731781</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5435159206390381</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.8599821329116821</v>
       </c>
       <c r="W274" t="n">
-        <v>0.07042522728443146</v>
+        <v>0.1001508608460426</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5272839069366455</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4863993525505066</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02451885491609573</v>
+        <v>0.001671546837314963</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5261969566345215</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.4953848719596863</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01656436920166016</v>
+        <v>0.0009493845864199102</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.531702995300293</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.498170018196106</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01970213279128075</v>
+        <v>0.001124460599385202</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5773441791534424</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.5134045481681824</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01107786409556866</v>
+        <v>0.004088276531547308</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5329620838165283</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.515445351600647</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01482178457081318</v>
+        <v>0.000306835921946913</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5262889862060547</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.4891517758369446</v>
       </c>
       <c r="W280" t="n">
-        <v>0.08042177557945251</v>
+        <v>0.001379172434099019</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5365738868713379</v>
       </c>
       <c r="V281" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8692736625671387</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0725383386015892</v>
+        <v>0.110689140856266</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.411963939666748</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8571322560310364</v>
       </c>
       <c r="W282" t="n">
-        <v>0.05800526216626167</v>
+        <v>0.1981748342514038</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4049649238586426</v>
       </c>
       <c r="V283" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8786637187004089</v>
       </c>
       <c r="W283" t="n">
-        <v>0.009872265160083771</v>
+        <v>0.2243905514478683</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4051148891448975</v>
       </c>
       <c r="V284" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.5133042335510254</v>
       </c>
       <c r="W284" t="n">
-        <v>0.002953325165435672</v>
+        <v>0.01170493382960558</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4043929576873779</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4034096002578735</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0005551137146539986</v>
+        <v>9.669918199506355e-07</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4033989906311035</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4103285372257233</v>
       </c>
       <c r="W286" t="n">
-        <v>0.005535374395549297</v>
+        <v>4.801861723535694e-05</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4018690586090088</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.3990735411643982</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06502608954906464</v>
+        <v>7.814917807991151e-06</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4015181064605713</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8924949765205383</v>
       </c>
       <c r="W288" t="n">
-        <v>0.00419581076130271</v>
+        <v>0.2410582900047302</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4263439178466797</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4917395412921906</v>
       </c>
       <c r="W289" t="n">
-        <v>0.001590015715919435</v>
+        <v>0.004276587627828121</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3996281623840332</v>
       </c>
       <c r="V290" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.8567594885826111</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1471249014139175</v>
+        <v>0.2089690566062927</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.401324987411499</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.4985641539096832</v>
       </c>
       <c r="W291" t="n">
-        <v>0.03505257144570351</v>
+        <v>0.009455455467104912</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4175078868865967</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.892659604549408</v>
       </c>
       <c r="W292" t="n">
-        <v>0.05525464937090874</v>
+        <v>0.2257691621780396</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4027259349822998</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4041706919670105</v>
       </c>
       <c r="W293" t="n">
-        <v>0.002086446154862642</v>
+        <v>2.087322855004459e-06</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3996129035949707</v>
       </c>
       <c r="V294" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.4119357466697693</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1468910723924637</v>
+        <v>0.0001518524659331888</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3984138965606689</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4893142580986023</v>
       </c>
       <c r="W295" t="n">
-        <v>2.744972334767226e-05</v>
+        <v>0.008262875489890575</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4002411365509033</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8711622953414917</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01796411722898483</v>
+        <v>0.2217667400836945</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4017670154571533</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4029207527637482</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01051518879830837</v>
+        <v>1.331109729107993e-06</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4008970260620117</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.5174729824066162</v>
       </c>
       <c r="W298" t="n">
-        <v>0.01051590964198112</v>
+        <v>0.01358995400369167</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4001319408416748</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.3974789977073669</v>
       </c>
       <c r="W299" t="n">
-        <v>0.07977845519781113</v>
+        <v>7.038107469270471e-06</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4019038677215576</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8787262439727783</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06807205826044083</v>
+        <v>0.2273595780134201</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3994951248168945</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4840131998062134</v>
       </c>
       <c r="W301" t="n">
-        <v>0.002621717983856797</v>
+        <v>0.007143305148929358</v>
       </c>
     </row>
     <row r="302" spans="1:23">
